--- a/DataSet3.xlsx
+++ b/DataSet3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenhoangphuc/AI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66528982-8975-C94A-AD94-ACC944D6F939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E8CA91-AE54-8D4F-B4F1-BEE5F4AC4270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4BDC760C-5BC3-3044-AC6D-54FA1AD6D99A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12360" windowHeight="18000" xr2:uid="{C7DED792-86C5-BD41-AE30-5BE0B27FF402}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,70 +25,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="18">
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Trestbps</t>
-  </si>
-  <si>
-    <t>Chol</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Heart</t>
-  </si>
-  <si>
-    <t>&lt;50</t>
-  </si>
-  <si>
-    <t>&lt;120</t>
-  </si>
-  <si>
-    <t>&lt;200</t>
-  </si>
-  <si>
-    <t>Male</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Outlook</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>Overcast</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>Mild</t>
+  </si>
+  <si>
+    <t>Cool</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>&lt;70</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>&lt;60</t>
-  </si>
-  <si>
-    <t>&lt;140</t>
-  </si>
-  <si>
-    <t>&lt;160</t>
-  </si>
-  <si>
-    <t>&gt;200</t>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Weak</t>
+  </si>
+  <si>
+    <t>Strong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -429,11 +477,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B702863-073E-104F-9902-E08460121A22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794E0299-4E3D-B142-A354-CF2AB244EBD3}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,299 +494,300 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>